--- a/exported_file/Translation for image 3 coloumns - Copy.xlsx
+++ b/exported_file/Translation for image 3 coloumns - Copy.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300"/>
+    <workbookView windowWidth="18345" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="czslike" sheetId="2" r:id="rId1"/>
     <sheet name="List1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">czslike!$A$1:$C$4</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">czslike!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>post_title</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-zene-smo-opasne.png </t>
-  </si>
-  <si>
-    <t>Vtipné tričko ženy jsou nebezpečné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-zene-su-opasne.png </t>
   </si>
   <si>
     <t>Vtipné tričko pivo se pění kašlu na to</t>
@@ -78,7 +72,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +83,24 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,138 +558,138 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,8 +772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="czslike" displayName="czslike" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C4" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="czslike" displayName="czslike" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C3" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="3">
     <tableColumn id="1" name="post_title" uniqueName="1" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" name="ID" uniqueName="2" queryTableFieldId="2"/>
@@ -1059,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="74.2833333333333" customWidth="1"/>
     <col min="2" max="2" width="40.7083333333333" customWidth="1"/>
@@ -1099,27 +1101,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1272742</v>
+        <v>1272743</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1272743</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId2" display="https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-zene-smo-opasne.png " tooltip="https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-zene-smo-opasne.png "/>
-    <hyperlink ref="C3" r:id="rId3" display="https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-zene-su-opasne.png "/>
+    <hyperlink ref="C3" r:id="rId3" display="https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-pivo-se-pjeni-jebe-se-meni.png " tooltip="https://www.top-tricka.cz/wp-content/uploads/2025/06/Smijesna-majica-pivo-se-pjeni-jebe-se-meni.png "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
